--- a/Python files and database/Data/result_of_tests.xlsx
+++ b/Python files and database/Data/result_of_tests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Місяць(1-12)</t>
   </si>
@@ -87,60 +87,6 @@
   </si>
   <si>
     <t>2,1:</t>
-  </si>
-  <si>
-    <t>Підрахунок точності моделі:</t>
-  </si>
-  <si>
-    <t>2:2*100=100%</t>
-  </si>
-  <si>
-    <t>0,84:0,9*100=93.3%</t>
-  </si>
-  <si>
-    <t>37:40*100=92,5</t>
-  </si>
-  <si>
-    <t>3:3,1*100=96%</t>
-  </si>
-  <si>
-    <t>73:71.*100=98%</t>
-  </si>
-  <si>
-    <t>265,9:282,7*100=94%</t>
-  </si>
-  <si>
-    <t>0,43:0,40*100=93%</t>
-  </si>
-  <si>
-    <t>22:19*100=85%</t>
-  </si>
-  <si>
-    <t>7,15:7,15*100=100%</t>
-  </si>
-  <si>
-    <t>0,11:0,1*100=90%</t>
-  </si>
-  <si>
-    <t>55:55*100=100%</t>
-  </si>
-  <si>
-    <t>58:54*100=92%</t>
-  </si>
-  <si>
-    <t>13:12*100=92%</t>
-  </si>
-  <si>
-    <t>6124:5825*100=95%</t>
-  </si>
-  <si>
-    <t>2,1:2,3*100=91%</t>
-  </si>
-  <si>
-    <t>Комлексна точність моделі:</t>
-  </si>
-  <si>
-    <t>(100+93.3+92,5+93+92+94+90+85+100+90+100+92+92+95+91):15=93%</t>
   </si>
 </sst>
 </file>
@@ -153,7 +99,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +116,14 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -663,137 +616,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,14 +759,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1350,30 +1304,20 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.2"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.2037037037037" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7314814814815" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.2037037037037" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6574074074074" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.0833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1851851851852" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4907407407407" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5277777777778" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.0462962962963" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1666666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6851851851852" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.8611111111111" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.8240740740741" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="7" width="14.7592592592593" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.0092592592593" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.56481481481481" style="1" customWidth="1"/>
+    <col min="10" max="15" width="14.7592592592593" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" ht="15.6" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:15">
+    <row r="2" ht="15.6" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1439,15 +1383,26 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" ht="18" spans="1:4">
+    <row r="3" ht="15.6" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" ht="15.6" spans="1:15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1494,15 +1449,26 @@
         <v>2.3</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:4">
+    <row r="5" ht="15.6" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" ht="15.6" spans="1:15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1549,15 +1515,26 @@
         <v>2.3</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:4">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="15.6" spans="1:15">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" ht="15.6" spans="1:15">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1605,64 +1582,30 @@
       </c>
     </row>
     <row r="9" ht="18" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" ht="18" spans="1:15">
-      <c r="A11" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1679,9 +1622,7 @@
       <c r="O11" s="6"/>
     </row>
     <row r="12" ht="18" spans="1:15">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
